--- a/output_expected.xlsx
+++ b/output_expected.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -43,11 +43,6 @@
     <font>
       <name val="Times New Roman"/>
       <charset val="1"/>
-      <family val="1"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
       <family val="1"/>
       <sz val="10"/>
     </font>
@@ -105,7 +100,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -128,6 +123,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF43A047"/>
+        <bgColor rgb="FF757575"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFAB91"/>
+        <bgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
   </fills>
@@ -187,22 +194,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -214,19 +212,22 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -235,6 +236,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -248,13 +255,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -266,19 +270,22 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -335,7 +342,7 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFFFAB91"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
@@ -347,7 +354,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF43A047"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -386,9 +393,9 @@
     </from>
     <to>
       <col>9</col>
-      <colOff>577800</colOff>
+      <colOff>577080</colOff>
       <row>9</row>
-      <rowOff>56880</rowOff>
+      <rowOff>56160</rowOff>
     </to>
     <pic>
       <nvPicPr>
@@ -404,7 +411,7 @@
       <spPr>
         <a:xfrm>
           <a:off x="7315920" y="51480"/>
-          <a:ext cx="1544760" cy="1468440"/>
+          <a:ext cx="1544040" cy="1467720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <avLst/>
@@ -431,9 +438,9 @@
     </from>
     <to>
       <col>7</col>
-      <colOff>738000</colOff>
+      <colOff>737280</colOff>
       <row>2</row>
-      <rowOff>1166760</rowOff>
+      <rowOff>1166040</rowOff>
     </to>
     <pic>
       <nvPicPr>
@@ -449,7 +456,7 @@
       <spPr>
         <a:xfrm>
           <a:off x="12031560" y="23400"/>
-          <a:ext cx="1544760" cy="1468440"/>
+          <a:ext cx="1544040" cy="1467720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <avLst/>
@@ -577,10 +584,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L8" activeCellId="0" sqref="L8"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
@@ -604,12 +611,12 @@
           <t>Ministère</t>
         </is>
       </c>
-      <c r="C2" s="25" t="inlineStr">
+      <c r="C2" s="23" t="inlineStr">
         <is>
           <t>https://google.com</t>
         </is>
       </c>
-      <c r="D2" s="25" t="inlineStr">
+      <c r="D2" s="23" t="inlineStr">
         <is>
           <t>link name</t>
         </is>
@@ -620,32 +627,32 @@
       <c r="G2" s="23" t="inlineStr"/>
     </row>
     <row r="3" ht="12.8" customHeight="1" s="22">
-      <c r="B3" s="26" t="n"/>
+      <c r="B3" s="25" t="n"/>
       <c r="F3" s="23" t="n">
         <v>3</v>
       </c>
       <c r="G3" s="23" t="inlineStr"/>
     </row>
     <row r="4" ht="12.8" customHeight="1" s="22">
-      <c r="A4" s="27" t="n">
+      <c r="A4" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="28" t="inlineStr">
+      <c r="B4" s="27" t="inlineStr">
         <is>
           <t>Region 1</t>
         </is>
       </c>
-      <c r="C4" s="28" t="inlineStr">
+      <c r="C4" s="27" t="inlineStr">
         <is>
           <t>quantity</t>
         </is>
       </c>
-      <c r="D4" s="28" t="inlineStr">
+      <c r="D4" s="27" t="inlineStr">
         <is>
           <t>settlement</t>
         </is>
       </c>
-      <c r="E4" s="28" t="inlineStr">
+      <c r="E4" s="27" t="inlineStr">
         <is>
           <t>total fosa</t>
         </is>
@@ -669,15 +676,15 @@
     </row>
     <row r="5" ht="12.8" customHeight="1" s="22">
       <c r="A5" s="24" t="inlineStr"/>
-      <c r="B5" s="29" t="inlineStr">
+      <c r="B5" s="28" t="inlineStr">
         <is>
           <t>District A</t>
         </is>
       </c>
-      <c r="C5" s="30" t="n">
+      <c r="C5" s="29" t="n">
         <v>10</v>
       </c>
-      <c r="D5" s="31" t="inlineStr">
+      <c r="D5" s="30" t="inlineStr">
         <is>
           <t>urban</t>
         </is>
@@ -689,26 +696,26 @@
         <v>5</v>
       </c>
       <c r="G5" s="23" t="inlineStr"/>
-      <c r="K5" s="24">
+      <c r="K5" s="31">
         <f>SUM(E5:F5)</f>
         <v/>
       </c>
-      <c r="L5" s="32">
+      <c r="L5" s="24">
         <f>SUM(E5:F5)</f>
         <v/>
       </c>
     </row>
     <row r="6" ht="12.8" customHeight="1" s="22">
       <c r="A6" s="24" t="inlineStr"/>
-      <c r="B6" s="29" t="inlineStr">
+      <c r="B6" s="28" t="inlineStr">
         <is>
           <t>District B</t>
         </is>
       </c>
-      <c r="C6" s="30" t="n">
+      <c r="C6" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="D6" s="31" t="inlineStr">
+      <c r="D6" s="30" t="inlineStr">
         <is>
           <t>rural</t>
         </is>
@@ -720,11 +727,11 @@
         <v>6</v>
       </c>
       <c r="G6" s="23" t="inlineStr"/>
-      <c r="K6" s="24">
+      <c r="K6" s="31">
         <f>SUM(E6:F6)</f>
         <v/>
       </c>
-      <c r="L6" s="32">
+      <c r="L6" s="24">
         <f>SUM(E6:F6)</f>
         <v/>
       </c>
@@ -755,25 +762,25 @@
       </c>
     </row>
     <row r="8" ht="12.8" customHeight="1" s="22">
-      <c r="A8" s="27" t="n">
+      <c r="A8" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="28" t="inlineStr">
+      <c r="B8" s="27" t="inlineStr">
         <is>
           <t>Region 2</t>
         </is>
       </c>
-      <c r="C8" s="28" t="inlineStr">
+      <c r="C8" s="27" t="inlineStr">
         <is>
           <t>quantity</t>
         </is>
       </c>
-      <c r="D8" s="28" t="inlineStr">
+      <c r="D8" s="27" t="inlineStr">
         <is>
           <t>settlement</t>
         </is>
       </c>
-      <c r="E8" s="28" t="inlineStr">
+      <c r="E8" s="27" t="inlineStr">
         <is>
           <t>total fosa</t>
         </is>
@@ -797,15 +804,15 @@
     </row>
     <row r="9" ht="12.8" customHeight="1" s="22">
       <c r="A9" s="24" t="inlineStr"/>
-      <c r="B9" s="29" t="inlineStr">
+      <c r="B9" s="28" t="inlineStr">
         <is>
           <t>District C</t>
         </is>
       </c>
-      <c r="C9" s="30" t="n">
+      <c r="C9" s="29" t="n">
         <v>20</v>
       </c>
-      <c r="D9" s="31" t="inlineStr">
+      <c r="D9" s="30" t="inlineStr">
         <is>
           <t>urban</t>
         </is>
@@ -817,11 +824,11 @@
         <v>9</v>
       </c>
       <c r="G9" s="23" t="inlineStr"/>
-      <c r="K9" s="24">
+      <c r="K9" s="31">
         <f>SUM(E9:F9)</f>
         <v/>
       </c>
-      <c r="L9" s="32">
+      <c r="L9" s="24">
         <f>SUM(E9:F9)</f>
         <v/>
       </c>
@@ -852,25 +859,25 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="27" t="n">
+      <c r="A11" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="B11" s="28" t="inlineStr">
+      <c r="B11" s="27" t="inlineStr">
         <is>
           <t>Region 3</t>
         </is>
       </c>
-      <c r="C11" s="28" t="inlineStr">
+      <c r="C11" s="27" t="inlineStr">
         <is>
           <t>quantity</t>
         </is>
       </c>
-      <c r="D11" s="28" t="inlineStr">
+      <c r="D11" s="27" t="inlineStr">
         <is>
           <t>settlement</t>
         </is>
       </c>
-      <c r="E11" s="28" t="inlineStr">
+      <c r="E11" s="27" t="inlineStr">
         <is>
           <t>total fosa</t>
         </is>
@@ -892,17 +899,17 @@
         </is>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="12.8" customHeight="1" s="22">
       <c r="A12" s="24" t="inlineStr"/>
-      <c r="B12" s="29" t="inlineStr">
+      <c r="B12" s="28" t="inlineStr">
         <is>
           <t>District D</t>
         </is>
       </c>
-      <c r="C12" s="30" t="n">
+      <c r="C12" s="29" t="n">
         <v>8</v>
       </c>
-      <c r="D12" s="31" t="inlineStr">
+      <c r="D12" s="30" t="inlineStr">
         <is>
           <t>rural</t>
         </is>
@@ -914,26 +921,26 @@
         <v>12</v>
       </c>
       <c r="G12" s="23" t="inlineStr"/>
-      <c r="K12" s="24">
+      <c r="K12" s="31">
         <f>SUM(E12:F12)</f>
         <v/>
       </c>
-      <c r="L12" s="32">
+      <c r="L12" s="24">
         <f>SUM(E12:F12)</f>
         <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="24" t="inlineStr"/>
-      <c r="B13" s="29" t="inlineStr">
+      <c r="B13" s="28" t="inlineStr">
         <is>
           <t>District E</t>
         </is>
       </c>
-      <c r="C13" s="30" t="n">
+      <c r="C13" s="29" t="n">
         <v>12</v>
       </c>
-      <c r="D13" s="31" t="inlineStr">
+      <c r="D13" s="30" t="inlineStr">
         <is>
           <t>rural</t>
         </is>
@@ -945,26 +952,26 @@
         <v>13</v>
       </c>
       <c r="G13" s="23" t="inlineStr"/>
-      <c r="K13" s="24">
+      <c r="K13" s="31">
         <f>SUM(E13:F13)</f>
         <v/>
       </c>
-      <c r="L13" s="32">
+      <c r="L13" s="24">
         <f>SUM(E13:F13)</f>
         <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="24" t="inlineStr"/>
-      <c r="B14" s="29" t="inlineStr">
+      <c r="B14" s="28" t="inlineStr">
         <is>
           <t>District F</t>
         </is>
       </c>
-      <c r="C14" s="30" t="n">
+      <c r="C14" s="29" t="n">
         <v>12</v>
       </c>
-      <c r="D14" s="31" t="inlineStr">
+      <c r="D14" s="30" t="inlineStr">
         <is>
           <t>rural</t>
         </is>
@@ -976,11 +983,11 @@
         <v>14</v>
       </c>
       <c r="G14" s="23" t="inlineStr"/>
-      <c r="K14" s="24">
+      <c r="K14" s="31">
         <f>SUM(E14:F14)</f>
         <v/>
       </c>
-      <c r="L14" s="32">
+      <c r="L14" s="24">
         <f>SUM(E14:F14)</f>
         <v/>
       </c>
@@ -1008,6 +1015,14 @@
       <c r="L15" s="32">
         <f>SUM(E12:E14)</f>
         <v/>
+      </c>
+    </row>
+    <row r="16"/>
+    <row r="17">
+      <c r="A17" s="24" t="inlineStr">
+        <is>
+          <t>This is the end of the listing it’s a work in progress</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1099,17 +1114,17 @@
       </c>
     </row>
     <row r="5" ht="12.8" customHeight="1" s="22">
-      <c r="A5" s="27" t="n">
+      <c r="A5" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="28" t="inlineStr">
+      <c r="B5" s="27" t="inlineStr">
         <is>
           <t>Region 1</t>
         </is>
       </c>
-      <c r="C5" s="28" t="n"/>
-      <c r="D5" s="28" t="n"/>
-      <c r="E5" s="28" t="inlineStr">
+      <c r="C5" s="27" t="n"/>
+      <c r="D5" s="27" t="n"/>
+      <c r="E5" s="27" t="inlineStr">
         <is>
           <t>settlement from another sheet</t>
         </is>
@@ -1310,17 +1325,17 @@
       </c>
     </row>
     <row r="12" ht="12.8" customHeight="1" s="22">
-      <c r="A12" s="27" t="n">
+      <c r="A12" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="B12" s="28" t="inlineStr">
+      <c r="B12" s="27" t="inlineStr">
         <is>
           <t>Region 2</t>
         </is>
       </c>
-      <c r="C12" s="28" t="n"/>
-      <c r="D12" s="28" t="n"/>
-      <c r="E12" s="28" t="inlineStr">
+      <c r="C12" s="27" t="n"/>
+      <c r="D12" s="27" t="n"/>
+      <c r="E12" s="27" t="inlineStr">
         <is>
           <t>settlement from another sheet</t>
         </is>
@@ -1393,17 +1408,17 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="27" t="n">
+      <c r="A15" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="B15" s="28" t="inlineStr">
+      <c r="B15" s="27" t="inlineStr">
         <is>
           <t>Region 3</t>
         </is>
       </c>
-      <c r="C15" s="28" t="n"/>
-      <c r="D15" s="28" t="n"/>
-      <c r="E15" s="28" t="inlineStr">
+      <c r="C15" s="27" t="n"/>
+      <c r="D15" s="27" t="n"/>
+      <c r="E15" s="27" t="inlineStr">
         <is>
           <t>settlement from another sheet</t>
         </is>
